--- a/debug-laporan-posyandu.xlsx
+++ b/debug-laporan-posyandu.xlsx
@@ -11,15 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
-  <si>
-    <t>PEMERINTAH KOTA BANDUNG</t>
-  </si>
-  <si>
-    <t>DINAS KESEHATAN</t>
-  </si>
-  <si>
-    <t>UPTD PUSKESMAS XYZ</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
+  <si>
+    <t>LAPORAN KEGIATAN POSYANDU XYZ</t>
+  </si>
+  <si>
+    <t>TAHUN 2024</t>
   </si>
   <si>
     <t>Nama Pekerjaan</t>
@@ -34,7 +31,7 @@
     <t>Kegiatan / Penyedia</t>
   </si>
   <si>
-    <t>Bantuan Operasional Kesehatan Puskesmas XYZ</t>
+    <t>Bantuan Operasional Kesehatan Posyandu XYZ</t>
   </si>
   <si>
     <t>Tanggal Pelaksanaan</t>
@@ -46,7 +43,7 @@
     <t>Lokasi</t>
   </si>
   <si>
-    <t>Puskesmas XYZ</t>
+    <t>Posyandu XYZ</t>
   </si>
   <si>
     <t>Hasil Kunjungan</t>
@@ -139,7 +136,13 @@
     <t>HBO</t>
   </si>
   <si>
-    <t>Petugas yang dikunjungi</t>
+    <t>John Does</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>B. Petugas yang dikunjungi</t>
   </si>
   <si>
     <t>NIP</t>
@@ -616,7 +619,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O23"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
@@ -671,34 +674,38 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -715,13 +722,13 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -738,13 +745,13 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -761,13 +768,13 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -782,91 +789,115 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="5" t="s">
+    <row r="12" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-    </row>
-    <row r="13" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="B13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="E13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="F13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="G13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="H13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="I13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="J13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="K13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="L13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="M13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="N13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N14" s="8" t="s">
+      <c r="O13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O14" s="8" t="s">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>29</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="10">
+        <v>32874</v>
+      </c>
+      <c r="E14" s="9">
+        <v>2</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="9">
+        <v>3</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="D15" s="10">
         <v>32874</v>
@@ -875,64 +906,98 @@
         <v>2</v>
       </c>
       <c r="F15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="H15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="I15" s="9">
+        <v>3</v>
+      </c>
+      <c r="J15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="9">
-        <v>3</v>
-      </c>
-      <c r="J15" s="9" t="s">
+      <c r="K15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="L15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="L15" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="M15" s="9" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="11"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="C16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="10">
+        <v>32874</v>
+      </c>
+      <c r="E16" s="9">
+        <v>2</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="9">
+        <v>3</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="11"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -942,10 +1007,10 @@
         <v>44</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -955,30 +1020,42 @@
         <v>45</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="C5:O5"/>
     <mergeCell ref="C6:O6"/>
     <mergeCell ref="C7:O7"/>
     <mergeCell ref="C8:O8"/>
     <mergeCell ref="C9:O9"/>
-    <mergeCell ref="C10:O10"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/debug-laporan-posyandu.xlsx
+++ b/debug-laporan-posyandu.xlsx
@@ -11,9 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
-  <si>
-    <t>LAPORAN KEGIATAN POSYANDU XYZ</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+  <si>
+    <t>LAPORAN KEGIATAN POSYANDU POSYANDU MELATI PUTIH 5</t>
   </si>
   <si>
     <t>TAHUN 2024</t>
@@ -31,19 +31,19 @@
     <t>Kegiatan / Penyedia</t>
   </si>
   <si>
-    <t>Bantuan Operasional Kesehatan Posyandu XYZ</t>
+    <t>Bantuan Operasional Kesehatan POSYANDU MELATI PUTIH 5</t>
   </si>
   <si>
     <t>Tanggal Pelaksanaan</t>
   </si>
   <si>
-    <t>1 Januari 2024</t>
+    <t>29 July 2024</t>
   </si>
   <si>
     <t>Lokasi</t>
   </si>
   <si>
-    <t>Posyandu XYZ</t>
+    <t>Posyandu POSYANDU MELATI PUTIH 5</t>
   </si>
   <si>
     <t>Hasil Kunjungan</t>
@@ -103,7 +103,7 @@
     <t>1234567890</t>
   </si>
   <si>
-    <t>John Doe Ganti</t>
+    <t>John Does</t>
   </si>
   <si>
     <t>Jakarta</t>
@@ -127,19 +127,13 @@
     <t>John Smith</t>
   </si>
   <si>
-    <t>4</t>
+    <t>3.7</t>
   </si>
   <si>
     <t>50</t>
   </si>
   <si>
     <t>HBO</t>
-  </si>
-  <si>
-    <t>John Does</t>
-  </si>
-  <si>
-    <t>John Doe</t>
   </si>
   <si>
     <t>B. Petugas yang dikunjungi</t>
@@ -619,7 +613,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O21"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
@@ -889,109 +883,41 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="9" t="s">
+    <row r="17" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="10">
-        <v>32874</v>
-      </c>
-      <c r="E15" s="9">
-        <v>2</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="9">
+      <c r="B17" s="11"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="M15" s="9" t="s">
+      <c r="C18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N15" s="9" t="s">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O15" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="10">
-        <v>32874</v>
-      </c>
-      <c r="E16" s="9">
-        <v>2</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="9">
-        <v>3</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="O16" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="11"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>3</v>
@@ -1014,32 +940,6 @@
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1051,11 +951,11 @@
     <mergeCell ref="C8:O8"/>
     <mergeCell ref="C9:O9"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
